--- a/medicine/Pharmacie/Étienne_Canals/Étienne_Canals.xlsx
+++ b/medicine/Pharmacie/Étienne_Canals/Étienne_Canals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Canals</t>
+          <t>Étienne_Canals</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Joseph Valentin Canals, né le 18 janvier 1888 à Palau-del-Vidre et mort le 29 octobre 1971 dans la même commune, est un professeur de chimie et de pharmacie français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Canals</t>
+          <t>Étienne_Canals</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Canals est reçu comme docteur en pharmacie en 1916 et docteur en sciences physiques en 1920 à l'Université de Montpellier, puis agrégé de pharmacie.
 Professeur de physique appliquée à la chimie et à la biologie à la Faculté de Pharmacie de Montpellier, dont il est le doyen de 1946 à 1958.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Canals</t>
+          <t>Étienne_Canals</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur.
  Officier de l'Instruction publique.</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Canals</t>
+          <t>Étienne_Canals</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il réalise des travaux sur la physicochimie des sucs végétaux, la radioactivité des eaux sulfureuses pyrénéennes et les applications de l'effet Raman.
 On lui doit plusieurs publications :
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Canals</t>
+          <t>Étienne_Canals</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,10 +632,12 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est officier de l'Instruction publique (1929) et officier de la Légion d'honneur (1957). Il est également décoré de l'ordre de la Santé publique (1954) et commandeur de l'ordre de la Santé publique espagnole (1956).
-Depuis 1964, une médaille en son hommage est décerné par la Société française de pharmacie de la Méditerranée latine[1].
+Depuis 1964, une médaille en son hommage est décerné par la Société française de pharmacie de la Méditerranée latine.
 Une place de Palau-del-Vidre est baptistée en son honneur. Il donne également son nom à une salle de la Faculté de Pharmacie de Montpellier, qui accueille le musée de la pharmacie.
 </t>
         </is>
